--- a/Project Documentatie/logboek/logboek_Alexander_Staneke.xlsx
+++ b/Project Documentatie/logboek/logboek_Alexander_Staneke.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex-\Dropbox\School_2016\Leerjaar 1\Periode 3\Project\Project De gokkers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Git\DeGokkers\Project Documentatie\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -32,69 +32,12 @@
     <t>Aantal weken gewerkt</t>
   </si>
   <si>
-    <t>Totaal aantal uren gewerkt Youri</t>
-  </si>
-  <si>
     <t>4 weken</t>
   </si>
   <si>
     <t>Totaal aantal uren gewerkt</t>
   </si>
   <si>
-    <t>29.11.2016</t>
-  </si>
-  <si>
-    <t>30.11.2016</t>
-  </si>
-  <si>
-    <t>1.12.2016</t>
-  </si>
-  <si>
-    <t>2.12.2016</t>
-  </si>
-  <si>
-    <t>3.12.2016</t>
-  </si>
-  <si>
-    <t>4.12.2016</t>
-  </si>
-  <si>
-    <t>5.12.2016</t>
-  </si>
-  <si>
-    <t>6.12.2016</t>
-  </si>
-  <si>
-    <t>7.12.2016</t>
-  </si>
-  <si>
-    <t>8.12.2016</t>
-  </si>
-  <si>
-    <t>9.12.2016</t>
-  </si>
-  <si>
-    <t>10.12.2016</t>
-  </si>
-  <si>
-    <t>11.12.2016</t>
-  </si>
-  <si>
-    <t>12.12.2016</t>
-  </si>
-  <si>
-    <t>13.12.2016</t>
-  </si>
-  <si>
-    <t>14.12.2016</t>
-  </si>
-  <si>
-    <t>15.12.2016</t>
-  </si>
-  <si>
-    <t>16.12.2016</t>
-  </si>
-  <si>
     <t>17.12.2016</t>
   </si>
   <si>
@@ -159,6 +102,63 @@
   </si>
   <si>
     <t>Audio toegevoegd, geïmplementeerd</t>
+  </si>
+  <si>
+    <t>Totaal aantal uren gewerkt Alexander</t>
+  </si>
+  <si>
+    <t>13/2/2017</t>
+  </si>
+  <si>
+    <t>14/2/2017</t>
+  </si>
+  <si>
+    <t>20/2/2017</t>
+  </si>
+  <si>
+    <t>21/2/2017</t>
+  </si>
+  <si>
+    <t>27/2/2017</t>
+  </si>
+  <si>
+    <t>28/7/2017</t>
+  </si>
+  <si>
+    <t>13/3/2017</t>
+  </si>
+  <si>
+    <t>14/3/2017</t>
+  </si>
+  <si>
+    <t>20/3/2017</t>
+  </si>
+  <si>
+    <t>21/3/2017</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>27/32017</t>
+  </si>
+  <si>
+    <t>28/3/2017</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>alles afronden</t>
+  </si>
+  <si>
+    <t>login menu maken</t>
+  </si>
+  <si>
+    <t>verder login menu</t>
+  </si>
+  <si>
+    <t>samenvoegen website</t>
   </si>
 </sst>
 </file>
@@ -244,18 +244,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Berekening" xfId="2" builtinId="22"/>
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,47 +573,47 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="9" width="2.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="9" width="2.5546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" customWidth="1"/>
-    <col min="20" max="20" width="2.85546875" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="2.88671875" customWidth="1"/>
+    <col min="21" max="21" width="2.5546875" customWidth="1"/>
+    <col min="22" max="22" width="3.109375" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
+    <col min="24" max="24" width="3.33203125" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" customWidth="1"/>
     <col min="26" max="26" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -620,311 +623,353 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>42889</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>42919</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>42798</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="3">
         <f>SUM(B2:B33)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>SUM(B36:C36)</f>
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
